--- a/Data/Ours/result-3parameters.xlsx
+++ b/Data/Ours/result-3parameters.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,21 @@
           <t>Ralph</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heldout</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -499,6 +514,15 @@
       <c r="G2" t="n">
         <v>0.4196688727606975</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.239470913886332</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.1764410798870532</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.2364732192617254</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -522,6 +546,15 @@
       <c r="G3" t="n">
         <v>0.488434070914503</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2599194628176281</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1686179665777728</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.246258967944162</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -544,6 +577,15 @@
       </c>
       <c r="G4" s="2" t="n">
         <v>0.4944820075484021</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.3026231658166844</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.1825107742650997</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.2803517658392644</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,6 +643,21 @@
           <t>Ralph</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heldout</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -624,6 +681,15 @@
       <c r="G2" t="n">
         <v>0.4645017272614938</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.4069123641251882</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.4574013950489707</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0.403796184478248</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -647,6 +713,15 @@
       <c r="G3" s="2" t="n">
         <v>0.504716306087492</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.4195278290054797</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.3531080584960379</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.307872308290973</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -669,6 +744,15 @@
       </c>
       <c r="G4" t="n">
         <v>0.5034778642933978</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.4870735198083218</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3519865380758106</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.3638337026983546</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +766,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -726,6 +810,21 @@
           <t>Ralph</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heldout</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -749,6 +848,15 @@
       <c r="G2" t="n">
         <v>0.4521028842935886</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.05264271528632902</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0.1763279916012854</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.08748373985843197</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -772,6 +880,15 @@
       <c r="G3" t="n">
         <v>0.4814921274260592</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.2505409341021674</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.03070026995027179</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.172460163966671</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -794,6 +911,15 @@
       </c>
       <c r="G4" s="2" t="n">
         <v>0.4870147717861043</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.3193364929361419</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.05198778973722222</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.2221106414170909</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,6 +977,21 @@
           <t>Ralph</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>heldout</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -874,6 +1015,15 @@
       <c r="G2" t="n">
         <v>0.3327671116648367</v>
       </c>
+      <c r="H2" t="n">
+        <v>0.005324628339910265</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-0.2924327437475576</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-0.05056503390420967</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -897,6 +1047,15 @@
       <c r="G3" s="2" t="n">
         <v>0.3552886307064124</v>
       </c>
+      <c r="H3" t="n">
+        <v>0.1708365832586527</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.07119097910171807</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.1044229432225396</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -919,6 +1078,15 @@
       </c>
       <c r="G4" t="n">
         <v>0.2500274217660792</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0.1718959247110086</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0.02605432875139947</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0.1071356394850121</v>
       </c>
     </row>
   </sheetData>
